--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/21_Bursa_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/21_Bursa_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0293BF1-7252-41A2-9CBD-BBC3CCEB02C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02ACB11-4416-45AC-A9CA-7C987ED5179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{108EF75F-A890-482F-8461-84B78EA24E84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{07BEBF7C-5A2F-4C70-8A6E-C490DFCFEDEF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="138" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D2A393B6-0E4F-48D3-80B6-CA7091E57645}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3C9D3C6E-7A94-4A3E-A314-BC64EA95F827}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{27E6B433-41F0-4EF6-B367-4FDED23E2DC1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C5D806A5-A1E4-4B47-AAD6-DC7160A22E95}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CFA37A63-FBE1-43D5-B4DD-0D0F7CCD2038}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{80BD107B-0244-48AF-8008-5EE66746A776}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1488CF47-7F39-42EE-AC7F-7E2EA875F44B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5AF45395-ABE1-4E93-9227-0CCBEA695E51}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E670CB97-4ACA-44EF-B9E5-B696D1793DDD}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{51EEC9BF-B394-4D9E-9A71-18863A4FC743}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CD7B6E8D-EF57-4CCF-9EFC-071893DAB907}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8550B1BC-79C0-4E9C-8FAD-F83828FCEEF3}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{145FBCD4-7ABF-4887-861C-D535CD1797CD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1310A60E-0DA4-49C6-AB79-867BE8D69391}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874436F4-3BA9-4DBB-8600-ACB1578937CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73EC28A-25DD-423F-9501-04962842C060}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2586,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795E5A21-60C7-4CD3-B2A8-180BAAD71412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38A002B-3CD1-4851-93A7-19A31B799AAD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0038D29D-4344-4BA9-A551-52E4A54FE71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9D24F7-D14C-46E5-9B58-9024A8958479}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437187D2-4730-46EB-88E3-B9DD3AAF670F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC31035-672B-4037-AAD3-3194C0CD0E4F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6507,7 +6507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C3F450-219D-4D98-BC59-72F319FDC832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95522F12-3645-4BE6-8CE0-E57FC8B4192E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7816,7 +7816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B844F441-158C-413B-B3FF-9EE79C6695BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E81DCC-A02F-4EEB-AB01-8D43969BB307}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9123,7 +9123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C85D476-2679-442D-9E84-E93809306D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B5B1E-D7D9-4E8C-9C07-DFB1344851F6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10430,7 +10430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CA2C6-5E39-4C5E-9137-E8CCC4B46C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31A3E47-7B1C-4C2C-8C9B-49F9FBD2560C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11737,7 +11737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E835E9-CFC0-400E-9642-32C5FC694822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBACC6-4BDF-435D-9ADB-CD7D16F54D63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13044,7 +13044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63271BF3-DB5E-4CF5-9A6B-C89D85C40CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6849D-97A6-4518-8E9D-630001E97266}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14353,7 +14353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3051D523-7C4D-47DA-9232-00FA432F1CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A02898-9FA6-4D3D-9A29-67477B5338A6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15662,7 +15662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB93A2B-E5A0-47C2-93EF-D167681F5FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D9624-8D66-4AE1-948E-2E0FCC6B846C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
